--- a/data/trial_metadata.xlsx
+++ b/data/trial_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D22E6A-7508-7341-8BB0-E77A0F7D0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB3545-09E9-CB40-B4EE-84BA4F77D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="760" windowWidth="16540" windowHeight="17200" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="91">
   <si>
     <t>date</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>plate48</t>
+  </si>
+  <si>
+    <t>plateA</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>plateB</t>
+  </si>
+  <si>
+    <t>21C</t>
   </si>
 </sst>
 </file>
@@ -671,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
-  <dimension ref="A1:H1153"/>
+  <dimension ref="A1:H1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
+      <selection activeCell="D1167" sqref="D1167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26605,7 +26620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1153">
         <v>20250702</v>
       </c>
@@ -26626,6 +26641,1230 @@
       </c>
       <c r="G1153" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>20250702</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>20250702</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1155">
+        <v>90</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>20250702</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1156">
+        <v>90</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>20250702</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1157">
+        <v>90</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>20250702</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1158">
+        <v>90</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>20250702</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1159">
+        <v>90</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>20250702</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>20250702</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1161">
+        <v>90</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>20250702</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1162">
+        <v>90</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>20250702</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1163">
+        <v>90</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>20250702</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1164">
+        <v>90</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>20250702</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1165">
+        <v>90</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>20250702</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>20250702</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1167">
+        <v>90</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>20250702</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1168">
+        <v>90</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>20250702</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1169">
+        <v>90</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>20250702</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1170">
+        <v>90</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>20250702</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1171">
+        <v>90</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>20250702</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>20250702</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1173">
+        <v>90</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>20250702</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1174">
+        <v>90</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>20250702</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1175">
+        <v>90</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>20250702</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1176">
+        <v>90</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>20250702</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1177">
+        <v>90</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>20250702</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>20250702</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1179">
+        <v>90</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>20250702</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1180">
+        <v>90</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>20250702</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1181">
+        <v>90</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>20250702</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1182">
+        <v>90</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>20250702</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1183">
+        <v>90</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>20250702</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>20250702</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1185">
+        <v>90</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>20250702</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1186">
+        <v>90</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>20250702</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1187">
+        <v>90</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>20250702</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1188">
+        <v>90</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>20250702</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1189">
+        <v>90</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>20250702</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>20250702</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1191">
+        <v>90</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>20250702</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1192">
+        <v>90</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>20250702</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1193">
+        <v>90</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>20250702</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1194">
+        <v>90</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>20250702</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1195">
+        <v>90</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>20250702</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>20250702</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1197">
+        <v>90</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>20250702</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1198">
+        <v>90</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>20250702</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1199">
+        <v>90</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>20250702</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1200">
+        <v>90</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>20250702</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1201">
+        <v>90</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trial_metadata.xlsx
+++ b/data/trial_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB3545-09E9-CB40-B4EE-84BA4F77D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A6403-BAC9-5E49-99B7-8BD2671E479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="760" windowWidth="16540" windowHeight="17200" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
@@ -296,19 +296,19 @@
     <t>plate48</t>
   </si>
   <si>
-    <t>plateA</t>
-  </si>
-  <si>
     <t>4C</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>plateB</t>
+    <t>21C</t>
   </si>
   <si>
-    <t>21C</t>
+    <t>plate71</t>
+  </si>
+  <si>
+    <t>plate72</t>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
   <dimension ref="A1:H1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
-      <selection activeCell="D1167" sqref="D1167"/>
+    <sheetView tabSelected="1" topLeftCell="A1169" workbookViewId="0">
+      <selection activeCell="C1195" sqref="C1195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26648,7 +26648,7 @@
         <v>20250702</v>
       </c>
       <c r="B1154" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1154" t="s">
         <v>6</v>
@@ -26657,13 +26657,13 @@
         <v>34</v>
       </c>
       <c r="E1154" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1154" t="s">
         <v>31</v>
       </c>
       <c r="H1154" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1155" spans="1:8" x14ac:dyDescent="0.2">
@@ -26671,7 +26671,7 @@
         <v>20250702</v>
       </c>
       <c r="B1155" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1155" t="s">
         <v>7</v>
@@ -26680,16 +26680,16 @@
         <v>90</v>
       </c>
       <c r="E1155" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1155" t="s">
         <v>87</v>
-      </c>
-      <c r="F1155" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1155" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1155" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1156" spans="1:8" x14ac:dyDescent="0.2">
@@ -26697,7 +26697,7 @@
         <v>20250702</v>
       </c>
       <c r="B1156" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1156" t="s">
         <v>8</v>
@@ -26706,16 +26706,16 @@
         <v>90</v>
       </c>
       <c r="E1156" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1156" t="s">
         <v>87</v>
-      </c>
-      <c r="F1156" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1156" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1156" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.2">
@@ -26723,7 +26723,7 @@
         <v>20250702</v>
       </c>
       <c r="B1157" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1157" t="s">
         <v>9</v>
@@ -26732,16 +26732,16 @@
         <v>90</v>
       </c>
       <c r="E1157" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1157" t="s">
         <v>87</v>
-      </c>
-      <c r="F1157" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1157" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1157" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1158" spans="1:8" x14ac:dyDescent="0.2">
@@ -26749,7 +26749,7 @@
         <v>20250702</v>
       </c>
       <c r="B1158" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1158" t="s">
         <v>10</v>
@@ -26758,16 +26758,16 @@
         <v>90</v>
       </c>
       <c r="E1158" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1158" t="s">
         <v>87</v>
-      </c>
-      <c r="F1158" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1158" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1158" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1159" spans="1:8" x14ac:dyDescent="0.2">
@@ -26775,7 +26775,7 @@
         <v>20250702</v>
       </c>
       <c r="B1159" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1159" t="s">
         <v>11</v>
@@ -26784,16 +26784,16 @@
         <v>90</v>
       </c>
       <c r="E1159" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1159" t="s">
         <v>87</v>
-      </c>
-      <c r="F1159" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1159" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1159" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1160" spans="1:8" x14ac:dyDescent="0.2">
@@ -26801,7 +26801,7 @@
         <v>20250702</v>
       </c>
       <c r="B1160" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1160" t="s">
         <v>12</v>
@@ -26810,13 +26810,13 @@
         <v>34</v>
       </c>
       <c r="E1160" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1160" t="s">
         <v>31</v>
       </c>
       <c r="H1160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1161" spans="1:8" x14ac:dyDescent="0.2">
@@ -26824,7 +26824,7 @@
         <v>20250702</v>
       </c>
       <c r="B1161" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1161" t="s">
         <v>13</v>
@@ -26833,16 +26833,16 @@
         <v>90</v>
       </c>
       <c r="E1161" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1161" t="s">
         <v>87</v>
-      </c>
-      <c r="F1161" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1161" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1161" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1162" spans="1:8" x14ac:dyDescent="0.2">
@@ -26850,7 +26850,7 @@
         <v>20250702</v>
       </c>
       <c r="B1162" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1162" t="s">
         <v>14</v>
@@ -26859,16 +26859,16 @@
         <v>90</v>
       </c>
       <c r="E1162" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1162" t="s">
         <v>87</v>
-      </c>
-      <c r="F1162" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1162" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1162" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1163" spans="1:8" x14ac:dyDescent="0.2">
@@ -26876,7 +26876,7 @@
         <v>20250702</v>
       </c>
       <c r="B1163" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1163" t="s">
         <v>15</v>
@@ -26885,16 +26885,16 @@
         <v>90</v>
       </c>
       <c r="E1163" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1163" t="s">
         <v>87</v>
-      </c>
-      <c r="F1163" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1163" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1163" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1164" spans="1:8" x14ac:dyDescent="0.2">
@@ -26902,7 +26902,7 @@
         <v>20250702</v>
       </c>
       <c r="B1164" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1164" t="s">
         <v>16</v>
@@ -26911,16 +26911,16 @@
         <v>90</v>
       </c>
       <c r="E1164" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1164" t="s">
         <v>87</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1164" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1164" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1165" spans="1:8" x14ac:dyDescent="0.2">
@@ -26928,7 +26928,7 @@
         <v>20250702</v>
       </c>
       <c r="B1165" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1165" t="s">
         <v>17</v>
@@ -26937,16 +26937,16 @@
         <v>90</v>
       </c>
       <c r="E1165" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1165" t="s">
         <v>87</v>
-      </c>
-      <c r="F1165" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1165" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1165" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1166" spans="1:8" x14ac:dyDescent="0.2">
@@ -26954,7 +26954,7 @@
         <v>20250702</v>
       </c>
       <c r="B1166" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1166" t="s">
         <v>18</v>
@@ -26963,13 +26963,13 @@
         <v>34</v>
       </c>
       <c r="E1166" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1166" t="s">
         <v>31</v>
       </c>
       <c r="H1166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
@@ -26977,7 +26977,7 @@
         <v>20250702</v>
       </c>
       <c r="B1167" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1167" t="s">
         <v>20</v>
@@ -26986,16 +26986,16 @@
         <v>90</v>
       </c>
       <c r="E1167" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1167" t="s">
         <v>87</v>
-      </c>
-      <c r="F1167" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1167" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1167" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.2">
@@ -27003,7 +27003,7 @@
         <v>20250702</v>
       </c>
       <c r="B1168" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1168" t="s">
         <v>19</v>
@@ -27012,16 +27012,16 @@
         <v>90</v>
       </c>
       <c r="E1168" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1168" t="s">
         <v>87</v>
-      </c>
-      <c r="F1168" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1168" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1168" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1169" spans="1:8" x14ac:dyDescent="0.2">
@@ -27029,7 +27029,7 @@
         <v>20250702</v>
       </c>
       <c r="B1169" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1169" t="s">
         <v>21</v>
@@ -27038,16 +27038,16 @@
         <v>90</v>
       </c>
       <c r="E1169" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1169" t="s">
         <v>87</v>
-      </c>
-      <c r="F1169" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1169" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1169" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1170" spans="1:8" x14ac:dyDescent="0.2">
@@ -27055,7 +27055,7 @@
         <v>20250702</v>
       </c>
       <c r="B1170" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1170" t="s">
         <v>22</v>
@@ -27064,16 +27064,16 @@
         <v>90</v>
       </c>
       <c r="E1170" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1170" t="s">
         <v>87</v>
-      </c>
-      <c r="F1170" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1170" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1170" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
@@ -27081,7 +27081,7 @@
         <v>20250702</v>
       </c>
       <c r="B1171" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1171" t="s">
         <v>23</v>
@@ -27090,16 +27090,16 @@
         <v>90</v>
       </c>
       <c r="E1171" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1171" t="s">
         <v>87</v>
-      </c>
-      <c r="F1171" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1171" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1171" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
@@ -27107,7 +27107,7 @@
         <v>20250702</v>
       </c>
       <c r="B1172" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1172" t="s">
         <v>24</v>
@@ -27116,13 +27116,13 @@
         <v>34</v>
       </c>
       <c r="E1172" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1172" t="s">
         <v>31</v>
       </c>
       <c r="H1172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
@@ -27130,7 +27130,7 @@
         <v>20250702</v>
       </c>
       <c r="B1173" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1173" t="s">
         <v>25</v>
@@ -27139,16 +27139,16 @@
         <v>90</v>
       </c>
       <c r="E1173" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1173" t="s">
         <v>87</v>
-      </c>
-      <c r="F1173" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1173" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1173" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.2">
@@ -27156,7 +27156,7 @@
         <v>20250702</v>
       </c>
       <c r="B1174" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1174" t="s">
         <v>26</v>
@@ -27165,16 +27165,16 @@
         <v>90</v>
       </c>
       <c r="E1174" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1174" t="s">
         <v>87</v>
-      </c>
-      <c r="F1174" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1174" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1174" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
@@ -27182,7 +27182,7 @@
         <v>20250702</v>
       </c>
       <c r="B1175" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1175" t="s">
         <v>27</v>
@@ -27191,16 +27191,16 @@
         <v>90</v>
       </c>
       <c r="E1175" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1175" t="s">
         <v>87</v>
-      </c>
-      <c r="F1175" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1175" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1175" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
@@ -27208,7 +27208,7 @@
         <v>20250702</v>
       </c>
       <c r="B1176" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1176" t="s">
         <v>28</v>
@@ -27217,16 +27217,16 @@
         <v>90</v>
       </c>
       <c r="E1176" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1176" t="s">
         <v>87</v>
-      </c>
-      <c r="F1176" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1176" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1176" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
@@ -27234,7 +27234,7 @@
         <v>20250702</v>
       </c>
       <c r="B1177" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1177" t="s">
         <v>29</v>
@@ -27243,16 +27243,16 @@
         <v>90</v>
       </c>
       <c r="E1177" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1177" t="s">
         <v>87</v>
-      </c>
-      <c r="F1177" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1177" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1177" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
@@ -27260,7 +27260,7 @@
         <v>20250702</v>
       </c>
       <c r="B1178" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1178" t="s">
         <v>6</v>
@@ -27269,13 +27269,13 @@
         <v>34</v>
       </c>
       <c r="E1178" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1178" t="s">
         <v>31</v>
       </c>
       <c r="H1178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1179" spans="1:8" x14ac:dyDescent="0.2">
@@ -27283,7 +27283,7 @@
         <v>20250702</v>
       </c>
       <c r="B1179" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1179" t="s">
         <v>7</v>
@@ -27292,7 +27292,7 @@
         <v>90</v>
       </c>
       <c r="E1179" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1179" t="s">
         <v>32</v>
@@ -27301,7 +27301,7 @@
         <v>60</v>
       </c>
       <c r="H1179" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.2">
@@ -27309,7 +27309,7 @@
         <v>20250702</v>
       </c>
       <c r="B1180" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1180" t="s">
         <v>8</v>
@@ -27318,7 +27318,7 @@
         <v>90</v>
       </c>
       <c r="E1180" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1180" t="s">
         <v>32</v>
@@ -27327,7 +27327,7 @@
         <v>60</v>
       </c>
       <c r="H1180" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.2">
@@ -27335,7 +27335,7 @@
         <v>20250702</v>
       </c>
       <c r="B1181" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1181" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>90</v>
       </c>
       <c r="E1181" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1181" t="s">
         <v>32</v>
@@ -27353,7 +27353,7 @@
         <v>60</v>
       </c>
       <c r="H1181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1182" spans="1:8" x14ac:dyDescent="0.2">
@@ -27361,7 +27361,7 @@
         <v>20250702</v>
       </c>
       <c r="B1182" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1182" t="s">
         <v>10</v>
@@ -27370,7 +27370,7 @@
         <v>90</v>
       </c>
       <c r="E1182" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1182" t="s">
         <v>32</v>
@@ -27379,7 +27379,7 @@
         <v>60</v>
       </c>
       <c r="H1182" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1183" spans="1:8" x14ac:dyDescent="0.2">
@@ -27387,7 +27387,7 @@
         <v>20250702</v>
       </c>
       <c r="B1183" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1183" t="s">
         <v>11</v>
@@ -27396,7 +27396,7 @@
         <v>90</v>
       </c>
       <c r="E1183" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1183" t="s">
         <v>32</v>
@@ -27405,7 +27405,7 @@
         <v>60</v>
       </c>
       <c r="H1183" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1184" spans="1:8" x14ac:dyDescent="0.2">
@@ -27413,7 +27413,7 @@
         <v>20250702</v>
       </c>
       <c r="B1184" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1184" t="s">
         <v>12</v>
@@ -27422,13 +27422,13 @@
         <v>34</v>
       </c>
       <c r="E1184" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1184" t="s">
         <v>31</v>
       </c>
       <c r="H1184" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1185" spans="1:8" x14ac:dyDescent="0.2">
@@ -27436,7 +27436,7 @@
         <v>20250702</v>
       </c>
       <c r="B1185" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1185" t="s">
         <v>13</v>
@@ -27445,7 +27445,7 @@
         <v>90</v>
       </c>
       <c r="E1185" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1185" t="s">
         <v>32</v>
@@ -27454,7 +27454,7 @@
         <v>60</v>
       </c>
       <c r="H1185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
@@ -27462,7 +27462,7 @@
         <v>20250702</v>
       </c>
       <c r="B1186" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1186" t="s">
         <v>14</v>
@@ -27471,7 +27471,7 @@
         <v>90</v>
       </c>
       <c r="E1186" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1186" t="s">
         <v>32</v>
@@ -27480,7 +27480,7 @@
         <v>60</v>
       </c>
       <c r="H1186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1187" spans="1:8" x14ac:dyDescent="0.2">
@@ -27488,7 +27488,7 @@
         <v>20250702</v>
       </c>
       <c r="B1187" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1187" t="s">
         <v>15</v>
@@ -27497,7 +27497,7 @@
         <v>90</v>
       </c>
       <c r="E1187" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1187" t="s">
         <v>32</v>
@@ -27506,7 +27506,7 @@
         <v>60</v>
       </c>
       <c r="H1187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1188" spans="1:8" x14ac:dyDescent="0.2">
@@ -27514,7 +27514,7 @@
         <v>20250702</v>
       </c>
       <c r="B1188" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1188" t="s">
         <v>16</v>
@@ -27523,7 +27523,7 @@
         <v>90</v>
       </c>
       <c r="E1188" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1188" t="s">
         <v>32</v>
@@ -27532,7 +27532,7 @@
         <v>60</v>
       </c>
       <c r="H1188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1189" spans="1:8" x14ac:dyDescent="0.2">
@@ -27540,7 +27540,7 @@
         <v>20250702</v>
       </c>
       <c r="B1189" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1189" t="s">
         <v>17</v>
@@ -27549,7 +27549,7 @@
         <v>90</v>
       </c>
       <c r="E1189" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1189" t="s">
         <v>32</v>
@@ -27558,7 +27558,7 @@
         <v>60</v>
       </c>
       <c r="H1189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1190" spans="1:8" x14ac:dyDescent="0.2">
@@ -27566,7 +27566,7 @@
         <v>20250702</v>
       </c>
       <c r="B1190" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1190" t="s">
         <v>18</v>
@@ -27575,13 +27575,13 @@
         <v>34</v>
       </c>
       <c r="E1190" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1190" t="s">
         <v>31</v>
       </c>
       <c r="H1190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1191" spans="1:8" x14ac:dyDescent="0.2">
@@ -27589,7 +27589,7 @@
         <v>20250702</v>
       </c>
       <c r="B1191" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1191" t="s">
         <v>20</v>
@@ -27598,7 +27598,7 @@
         <v>90</v>
       </c>
       <c r="E1191" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1191" t="s">
         <v>32</v>
@@ -27607,7 +27607,7 @@
         <v>60</v>
       </c>
       <c r="H1191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1192" spans="1:8" x14ac:dyDescent="0.2">
@@ -27615,7 +27615,7 @@
         <v>20250702</v>
       </c>
       <c r="B1192" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1192" t="s">
         <v>19</v>
@@ -27624,7 +27624,7 @@
         <v>90</v>
       </c>
       <c r="E1192" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1192" t="s">
         <v>32</v>
@@ -27633,7 +27633,7 @@
         <v>60</v>
       </c>
       <c r="H1192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1193" spans="1:8" x14ac:dyDescent="0.2">
@@ -27641,7 +27641,7 @@
         <v>20250702</v>
       </c>
       <c r="B1193" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1193" t="s">
         <v>21</v>
@@ -27650,7 +27650,7 @@
         <v>90</v>
       </c>
       <c r="E1193" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1193" t="s">
         <v>32</v>
@@ -27659,7 +27659,7 @@
         <v>60</v>
       </c>
       <c r="H1193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1194" spans="1:8" x14ac:dyDescent="0.2">
@@ -27667,7 +27667,7 @@
         <v>20250702</v>
       </c>
       <c r="B1194" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1194" t="s">
         <v>22</v>
@@ -27676,7 +27676,7 @@
         <v>90</v>
       </c>
       <c r="E1194" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1194" t="s">
         <v>32</v>
@@ -27685,7 +27685,7 @@
         <v>60</v>
       </c>
       <c r="H1194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1195" spans="1:8" x14ac:dyDescent="0.2">
@@ -27693,7 +27693,7 @@
         <v>20250702</v>
       </c>
       <c r="B1195" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1195" t="s">
         <v>23</v>
@@ -27702,7 +27702,7 @@
         <v>90</v>
       </c>
       <c r="E1195" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1195" t="s">
         <v>32</v>
@@ -27711,7 +27711,7 @@
         <v>60</v>
       </c>
       <c r="H1195" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1196" spans="1:8" x14ac:dyDescent="0.2">
@@ -27719,7 +27719,7 @@
         <v>20250702</v>
       </c>
       <c r="B1196" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1196" t="s">
         <v>24</v>
@@ -27728,13 +27728,13 @@
         <v>34</v>
       </c>
       <c r="E1196" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1196" t="s">
         <v>31</v>
       </c>
       <c r="H1196" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1197" spans="1:8" x14ac:dyDescent="0.2">
@@ -27742,7 +27742,7 @@
         <v>20250702</v>
       </c>
       <c r="B1197" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1197" t="s">
         <v>25</v>
@@ -27751,7 +27751,7 @@
         <v>90</v>
       </c>
       <c r="E1197" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1197" t="s">
         <v>32</v>
@@ -27760,7 +27760,7 @@
         <v>60</v>
       </c>
       <c r="H1197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1198" spans="1:8" x14ac:dyDescent="0.2">
@@ -27768,7 +27768,7 @@
         <v>20250702</v>
       </c>
       <c r="B1198" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1198" t="s">
         <v>26</v>
@@ -27777,7 +27777,7 @@
         <v>90</v>
       </c>
       <c r="E1198" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1198" t="s">
         <v>32</v>
@@ -27786,7 +27786,7 @@
         <v>60</v>
       </c>
       <c r="H1198" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1199" spans="1:8" x14ac:dyDescent="0.2">
@@ -27794,7 +27794,7 @@
         <v>20250702</v>
       </c>
       <c r="B1199" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1199" t="s">
         <v>27</v>
@@ -27803,7 +27803,7 @@
         <v>90</v>
       </c>
       <c r="E1199" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1199" t="s">
         <v>32</v>
@@ -27812,7 +27812,7 @@
         <v>60</v>
       </c>
       <c r="H1199" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1200" spans="1:8" x14ac:dyDescent="0.2">
@@ -27820,7 +27820,7 @@
         <v>20250702</v>
       </c>
       <c r="B1200" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1200" t="s">
         <v>28</v>
@@ -27829,7 +27829,7 @@
         <v>90</v>
       </c>
       <c r="E1200" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1200" t="s">
         <v>32</v>
@@ -27838,7 +27838,7 @@
         <v>60</v>
       </c>
       <c r="H1200" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1201" spans="1:8" x14ac:dyDescent="0.2">
@@ -27846,7 +27846,7 @@
         <v>20250702</v>
       </c>
       <c r="B1201" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1201" t="s">
         <v>29</v>
@@ -27855,7 +27855,7 @@
         <v>90</v>
       </c>
       <c r="E1201" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1201" t="s">
         <v>32</v>
@@ -27864,7 +27864,7 @@
         <v>60</v>
       </c>
       <c r="H1201" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trial_metadata.xlsx
+++ b/data/trial_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF336CA-97A0-3B48-805D-D742E5733DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA27B79-8CD2-AC4E-BAEE-A5047C3139A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="760" windowWidth="13220" windowHeight="17200" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8697" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8696" uniqueCount="113">
   <si>
     <t>date</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>plate70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUPLICATE </t>
   </si>
 </sst>
 </file>
@@ -765,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
   <dimension ref="A1:H1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A1478" workbookViewId="0">
+      <selection activeCell="E1536" sqref="E1536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34401,7 +34398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1489" s="1">
         <v>20250703</v>
       </c>
@@ -34424,7 +34421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1490" s="1">
         <v>20250703</v>
       </c>
@@ -34443,11 +34440,9 @@
       <c r="F1490" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1490" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1490" s="1"/>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1491" s="1">
         <v>20250703</v>
       </c>
@@ -34470,7 +34465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1492" s="1">
         <v>20250703</v>
       </c>
@@ -34493,7 +34488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1493" s="1">
         <v>20250703</v>
       </c>
@@ -34516,7 +34511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1494" s="1">
         <v>20250703</v>
       </c>
@@ -34539,7 +34534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1495" s="1">
         <v>20250703</v>
       </c>
@@ -34550,7 +34545,7 @@
         <v>11</v>
       </c>
       <c r="D1495" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E1495" s="1" t="s">
         <v>33</v>
@@ -34562,7 +34557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1496" s="1">
         <v>20250703</v>
       </c>
@@ -34582,7 +34577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1497" s="1">
         <v>20250703</v>
       </c>
@@ -34605,7 +34600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1498" s="1">
         <v>20250703</v>
       </c>
@@ -34628,7 +34623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1499" s="1">
         <v>20250703</v>
       </c>
@@ -34651,7 +34646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1500" s="1">
         <v>20250703</v>
       </c>
@@ -34674,7 +34669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1501" s="1">
         <v>20250703</v>
       </c>
@@ -34685,7 +34680,7 @@
         <v>17</v>
       </c>
       <c r="D1501" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E1501" s="1" t="s">
         <v>33</v>
@@ -34697,7 +34692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1502" s="1">
         <v>20250703</v>
       </c>
@@ -34717,7 +34712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1503" s="1">
         <v>20250703</v>
       </c>
@@ -34740,7 +34735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1504" s="1">
         <v>20250703</v>
       </c>
@@ -34820,7 +34815,7 @@
         <v>23</v>
       </c>
       <c r="D1507" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E1507" s="1" t="s">
         <v>33</v>
@@ -34955,7 +34950,7 @@
         <v>29</v>
       </c>
       <c r="D1513" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E1513" s="1" t="s">
         <v>33</v>
@@ -35090,7 +35085,7 @@
         <v>11</v>
       </c>
       <c r="D1519" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1519" s="1" t="s">
         <v>33</v>
@@ -35225,7 +35220,7 @@
         <v>17</v>
       </c>
       <c r="D1525" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1525" s="1" t="s">
         <v>33</v>
@@ -35360,7 +35355,7 @@
         <v>23</v>
       </c>
       <c r="D1531" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1531" s="1" t="s">
         <v>33</v>
@@ -35495,7 +35490,7 @@
         <v>29</v>
       </c>
       <c r="D1537" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1537" s="1" t="s">
         <v>33</v>
